--- a/biology/Botanique/François_Vidron/François_Vidron.xlsx
+++ b/biology/Botanique/François_Vidron/François_Vidron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Vidron</t>
+          <t>François_Vidron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Vidron (1899-1985) est un Conservateur et inspecteur général des Eaux et Forêts et écrivain français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Vidron (1899-1985) est un Conservateur et inspecteur général des Eaux et Forêts et écrivain français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Vidron</t>
+          <t>François_Vidron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conservateur et inspecteur général des Eaux et Forêts, administration dont il est l'adjoint du directeur général, il est directeur des chasses présidentielles[2] de 1934 à 1969 et du parc national d'élevage de Vaux de Cernay, ainsi que secrétaire général du Conseil supérieur de la Chasse (futur Office national de la chasse et de la faune sauvage).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conservateur et inspecteur général des Eaux et Forêts, administration dont il est l'adjoint du directeur général, il est directeur des chasses présidentielles de 1934 à 1969 et du parc national d'élevage de Vaux de Cernay, ainsi que secrétaire général du Conseil supérieur de la Chasse (futur Office national de la chasse et de la faune sauvage).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Vidron</t>
+          <t>François_Vidron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Cerf Sika (1939)
 La Chasse en plaine et au bois (illustrations de Yves Benoist-Gironière - PUF, 1946)
